--- a/sub-02PC/psych_RFT_COTE_sub-02PC.xlsx
+++ b/sub-02PC/psych_RFT_COTE_sub-02PC.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-02PC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{70F66B42-6460-4BDF-BE26-3BFC3707F02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{70F66B42-6460-4BDF-BE26-3BFC3707F02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21951E85-00D0-470A-958A-3CC926C53DBC}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1"/>
+    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RFT_COTE_sub-02PC (2)" sheetId="2" r:id="rId1"/>
@@ -21,16 +21,28 @@
     <definedName name="DonnéesExternes_1" localSheetId="1" hidden="1">Feuil1!$A$1:$BM$11</definedName>
     <definedName name="DonnéesExternes_1" localSheetId="0" hidden="1">'psych_RFT_COTE_sub-02PC (2)'!$A$1:$BM$11</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" keepAlive="1" name="Requête - psych_RFT_COTE_sub-02PC" description="Connexion à la requête « psych_RFT_COTE_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" keepAlive="1" name="Requête - psych_RFT_COTE_sub-02PC" description="Connexion à la requête « psych_RFT_COTE_sub-02PC » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=psych_RFT_COTE_sub-02PC;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RFT_COTE_sub-02PC]"/>
   </connection>
-  <connection id="2" keepAlive="1" name="Requête - psych_RFT_COTE_sub-02PC (2)" description="Connexion à la requête « psych_RFT_COTE_sub-02PC (2) » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" keepAlive="1" name="Requête - psych_RFT_COTE_sub-02PC (2)" description="Connexion à la requête « psych_RFT_COTE_sub-02PC (2) » dans le classeur." type="5" refreshedVersion="7" background="1" saveData="1">
     <dbPr connection="Provider=Microsoft.Mashup.OleDb.1;Data Source=$Workbook$;Location=&quot;psych_RFT_COTE_sub-02PC (2)&quot;;Extended Properties=&quot;&quot;" command="SELECT * FROM [psych_RFT_COTE_sub-02PC (2)]"/>
   </connection>
 </connections>
@@ -327,9 +339,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
@@ -944,10 +956,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3113,7 +3125,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="66">
     <queryTableFields count="65">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -3187,7 +3199,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="DonnéesExternes_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="DonnéesExternes_1" connectionId="2" xr16:uid="{00000000-0016-0000-0100-000001000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="66">
     <queryTableFields count="65">
       <queryTableField id="1" name="Essai" tableColumnId="1"/>
@@ -3261,274 +3273,274 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="psych_RFT_COTE_sub_02PC" displayName="psych_RFT_COTE_sub_02PC" ref="A1:BM11" tableType="queryTable" totalsRowShown="0">
-  <autoFilter ref="A1:BM11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="psych_RFT_COTE_sub_02PC" displayName="psych_RFT_COTE_sub_02PC" ref="A1:BM11" tableType="queryTable" totalsRowShown="0">
+  <autoFilter ref="A1:BM11" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="65">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="194"/>
-    <tableColumn id="2" uniqueName="2" name="-35/-7" queryTableFieldId="2" dataDxfId="193"/>
-    <tableColumn id="3" uniqueName="3" name="-35/-4" queryTableFieldId="3" dataDxfId="192"/>
-    <tableColumn id="4" uniqueName="4" name="-35/-2" queryTableFieldId="4" dataDxfId="191"/>
-    <tableColumn id="5" uniqueName="5" name="-35/-1" queryTableFieldId="5" dataDxfId="190"/>
-    <tableColumn id="6" uniqueName="6" name="-35/1" queryTableFieldId="6" dataDxfId="189"/>
-    <tableColumn id="7" uniqueName="7" name="-35/2" queryTableFieldId="7" dataDxfId="188"/>
-    <tableColumn id="8" uniqueName="8" name="-35/4" queryTableFieldId="8" dataDxfId="187"/>
-    <tableColumn id="9" uniqueName="9" name="-35/7" queryTableFieldId="9" dataDxfId="186"/>
-    <tableColumn id="10" uniqueName="10" name="-25/-7" queryTableFieldId="10" dataDxfId="185"/>
-    <tableColumn id="11" uniqueName="11" name="-25/-4" queryTableFieldId="11" dataDxfId="184"/>
-    <tableColumn id="12" uniqueName="12" name="-25/-2" queryTableFieldId="12" dataDxfId="183"/>
-    <tableColumn id="13" uniqueName="13" name="-25/-1" queryTableFieldId="13" dataDxfId="182"/>
-    <tableColumn id="14" uniqueName="14" name="-25/1" queryTableFieldId="14" dataDxfId="181"/>
-    <tableColumn id="15" uniqueName="15" name="-25/2" queryTableFieldId="15" dataDxfId="180"/>
-    <tableColumn id="16" uniqueName="16" name="-25/4" queryTableFieldId="16" dataDxfId="179"/>
-    <tableColumn id="17" uniqueName="17" name="-25/7" queryTableFieldId="17" dataDxfId="178"/>
-    <tableColumn id="18" uniqueName="18" name="-15/-7" queryTableFieldId="18" dataDxfId="177"/>
-    <tableColumn id="19" uniqueName="19" name="-15/-4" queryTableFieldId="19" dataDxfId="176"/>
-    <tableColumn id="20" uniqueName="20" name="-15/-2" queryTableFieldId="20" dataDxfId="175"/>
-    <tableColumn id="21" uniqueName="21" name="-15/-1" queryTableFieldId="21" dataDxfId="174"/>
-    <tableColumn id="22" uniqueName="22" name="-15/1" queryTableFieldId="22" dataDxfId="173"/>
-    <tableColumn id="23" uniqueName="23" name="-15/2" queryTableFieldId="23" dataDxfId="172"/>
-    <tableColumn id="24" uniqueName="24" name="-15/4" queryTableFieldId="24" dataDxfId="171"/>
-    <tableColumn id="25" uniqueName="25" name="-15/7" queryTableFieldId="25" dataDxfId="170"/>
-    <tableColumn id="26" uniqueName="26" name="-5/-7" queryTableFieldId="26" dataDxfId="169"/>
-    <tableColumn id="27" uniqueName="27" name="-5/-4" queryTableFieldId="27" dataDxfId="168"/>
-    <tableColumn id="28" uniqueName="28" name="-5/-2" queryTableFieldId="28" dataDxfId="167"/>
-    <tableColumn id="29" uniqueName="29" name="-5/-1" queryTableFieldId="29" dataDxfId="166"/>
-    <tableColumn id="30" uniqueName="30" name="-5/1" queryTableFieldId="30" dataDxfId="165"/>
-    <tableColumn id="31" uniqueName="31" name="-5/2" queryTableFieldId="31" dataDxfId="164"/>
-    <tableColumn id="32" uniqueName="32" name="-5/4" queryTableFieldId="32" dataDxfId="163"/>
-    <tableColumn id="33" uniqueName="33" name="-5/7" queryTableFieldId="33" dataDxfId="162"/>
-    <tableColumn id="34" uniqueName="34" name="5/-7" queryTableFieldId="34" dataDxfId="161"/>
-    <tableColumn id="35" uniqueName="35" name="5/-4" queryTableFieldId="35" dataDxfId="160"/>
-    <tableColumn id="36" uniqueName="36" name="5/-2" queryTableFieldId="36" dataDxfId="159"/>
-    <tableColumn id="37" uniqueName="37" name="5/-1" queryTableFieldId="37" dataDxfId="158"/>
-    <tableColumn id="38" uniqueName="38" name="5/1" queryTableFieldId="38" dataDxfId="157"/>
-    <tableColumn id="39" uniqueName="39" name="5/2" queryTableFieldId="39" dataDxfId="156"/>
-    <tableColumn id="40" uniqueName="40" name="5/4" queryTableFieldId="40" dataDxfId="155"/>
-    <tableColumn id="41" uniqueName="41" name="5/7" queryTableFieldId="41" dataDxfId="154"/>
-    <tableColumn id="42" uniqueName="42" name="15/-7" queryTableFieldId="42" dataDxfId="153"/>
-    <tableColumn id="43" uniqueName="43" name="15/-4" queryTableFieldId="43" dataDxfId="152"/>
-    <tableColumn id="44" uniqueName="44" name="15/-2" queryTableFieldId="44" dataDxfId="151"/>
-    <tableColumn id="45" uniqueName="45" name="15/-1" queryTableFieldId="45" dataDxfId="150"/>
-    <tableColumn id="46" uniqueName="46" name="15/1" queryTableFieldId="46" dataDxfId="149"/>
-    <tableColumn id="47" uniqueName="47" name="15/2" queryTableFieldId="47" dataDxfId="148"/>
-    <tableColumn id="48" uniqueName="48" name="15/4" queryTableFieldId="48" dataDxfId="147"/>
-    <tableColumn id="49" uniqueName="49" name="15/7" queryTableFieldId="49" dataDxfId="146"/>
-    <tableColumn id="50" uniqueName="50" name="25/-7" queryTableFieldId="50" dataDxfId="145"/>
-    <tableColumn id="51" uniqueName="51" name="25/-4" queryTableFieldId="51" dataDxfId="144"/>
-    <tableColumn id="52" uniqueName="52" name="25/-2" queryTableFieldId="52" dataDxfId="143"/>
-    <tableColumn id="53" uniqueName="53" name="25/-1" queryTableFieldId="53" dataDxfId="142"/>
-    <tableColumn id="54" uniqueName="54" name="25/1" queryTableFieldId="54" dataDxfId="141"/>
-    <tableColumn id="55" uniqueName="55" name="25/2" queryTableFieldId="55" dataDxfId="140"/>
-    <tableColumn id="56" uniqueName="56" name="25/4" queryTableFieldId="56" dataDxfId="139"/>
-    <tableColumn id="57" uniqueName="57" name="25/7" queryTableFieldId="57" dataDxfId="138"/>
-    <tableColumn id="58" uniqueName="58" name="35/-7" queryTableFieldId="58" dataDxfId="137"/>
-    <tableColumn id="59" uniqueName="59" name="35/-4" queryTableFieldId="59" dataDxfId="136"/>
-    <tableColumn id="60" uniqueName="60" name="35/-2" queryTableFieldId="60" dataDxfId="135"/>
-    <tableColumn id="61" uniqueName="61" name="35/-1" queryTableFieldId="61" dataDxfId="134"/>
-    <tableColumn id="62" uniqueName="62" name="35/1" queryTableFieldId="62" dataDxfId="133"/>
-    <tableColumn id="63" uniqueName="63" name="35/2" queryTableFieldId="63" dataDxfId="132"/>
-    <tableColumn id="64" uniqueName="64" name="35/4" queryTableFieldId="64" dataDxfId="131"/>
-    <tableColumn id="65" uniqueName="65" name="35/7" queryTableFieldId="65" dataDxfId="130"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" uniqueName="2" name="-35/-7" queryTableFieldId="2" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" uniqueName="3" name="-35/-4" queryTableFieldId="3" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" uniqueName="4" name="-35/-2" queryTableFieldId="4" dataDxfId="191"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" uniqueName="5" name="-35/-1" queryTableFieldId="5" dataDxfId="190"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" uniqueName="6" name="-35/1" queryTableFieldId="6" dataDxfId="189"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" uniqueName="7" name="-35/2" queryTableFieldId="7" dataDxfId="188"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" uniqueName="8" name="-35/4" queryTableFieldId="8" dataDxfId="187"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" uniqueName="9" name="-35/7" queryTableFieldId="9" dataDxfId="186"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" uniqueName="10" name="-25/-7" queryTableFieldId="10" dataDxfId="185"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" uniqueName="11" name="-25/-4" queryTableFieldId="11" dataDxfId="184"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" uniqueName="12" name="-25/-2" queryTableFieldId="12" dataDxfId="183"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" uniqueName="13" name="-25/-1" queryTableFieldId="13" dataDxfId="182"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" uniqueName="14" name="-25/1" queryTableFieldId="14" dataDxfId="181"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" uniqueName="15" name="-25/2" queryTableFieldId="15" dataDxfId="180"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" uniqueName="16" name="-25/4" queryTableFieldId="16" dataDxfId="179"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" uniqueName="17" name="-25/7" queryTableFieldId="17" dataDxfId="178"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" uniqueName="18" name="-15/-7" queryTableFieldId="18" dataDxfId="177"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" uniqueName="19" name="-15/-4" queryTableFieldId="19" dataDxfId="176"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" uniqueName="20" name="-15/-2" queryTableFieldId="20" dataDxfId="175"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" uniqueName="21" name="-15/-1" queryTableFieldId="21" dataDxfId="174"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" uniqueName="22" name="-15/1" queryTableFieldId="22" dataDxfId="173"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" uniqueName="23" name="-15/2" queryTableFieldId="23" dataDxfId="172"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" uniqueName="24" name="-15/4" queryTableFieldId="24" dataDxfId="171"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" uniqueName="25" name="-15/7" queryTableFieldId="25" dataDxfId="170"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" uniqueName="26" name="-5/-7" queryTableFieldId="26" dataDxfId="169"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" uniqueName="27" name="-5/-4" queryTableFieldId="27" dataDxfId="168"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" uniqueName="28" name="-5/-2" queryTableFieldId="28" dataDxfId="167"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" uniqueName="29" name="-5/-1" queryTableFieldId="29" dataDxfId="166"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" uniqueName="30" name="-5/1" queryTableFieldId="30" dataDxfId="165"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" uniqueName="31" name="-5/2" queryTableFieldId="31" dataDxfId="164"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" uniqueName="32" name="-5/4" queryTableFieldId="32" dataDxfId="163"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" uniqueName="33" name="-5/7" queryTableFieldId="33" dataDxfId="162"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" uniqueName="34" name="5/-7" queryTableFieldId="34" dataDxfId="161"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" uniqueName="35" name="5/-4" queryTableFieldId="35" dataDxfId="160"/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" uniqueName="36" name="5/-2" queryTableFieldId="36" dataDxfId="159"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" uniqueName="37" name="5/-1" queryTableFieldId="37" dataDxfId="158"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" uniqueName="38" name="5/1" queryTableFieldId="38" dataDxfId="157"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" uniqueName="39" name="5/2" queryTableFieldId="39" dataDxfId="156"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" uniqueName="40" name="5/4" queryTableFieldId="40" dataDxfId="155"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" uniqueName="41" name="5/7" queryTableFieldId="41" dataDxfId="154"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" uniqueName="42" name="15/-7" queryTableFieldId="42" dataDxfId="153"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" uniqueName="43" name="15/-4" queryTableFieldId="43" dataDxfId="152"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" uniqueName="44" name="15/-2" queryTableFieldId="44" dataDxfId="151"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" uniqueName="45" name="15/-1" queryTableFieldId="45" dataDxfId="150"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" uniqueName="46" name="15/1" queryTableFieldId="46" dataDxfId="149"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" uniqueName="47" name="15/2" queryTableFieldId="47" dataDxfId="148"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" uniqueName="48" name="15/4" queryTableFieldId="48" dataDxfId="147"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" uniqueName="49" name="15/7" queryTableFieldId="49" dataDxfId="146"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" uniqueName="50" name="25/-7" queryTableFieldId="50" dataDxfId="145"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" uniqueName="51" name="25/-4" queryTableFieldId="51" dataDxfId="144"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" uniqueName="52" name="25/-2" queryTableFieldId="52" dataDxfId="143"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" uniqueName="53" name="25/-1" queryTableFieldId="53" dataDxfId="142"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" uniqueName="54" name="25/1" queryTableFieldId="54" dataDxfId="141"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" uniqueName="55" name="25/2" queryTableFieldId="55" dataDxfId="140"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" uniqueName="56" name="25/4" queryTableFieldId="56" dataDxfId="139"/>
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0000-000039000000}" uniqueName="57" name="25/7" queryTableFieldId="57" dataDxfId="138"/>
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0000-00003A000000}" uniqueName="58" name="35/-7" queryTableFieldId="58" dataDxfId="137"/>
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0000-00003B000000}" uniqueName="59" name="35/-4" queryTableFieldId="59" dataDxfId="136"/>
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0000-00003C000000}" uniqueName="60" name="35/-2" queryTableFieldId="60" dataDxfId="135"/>
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0000-00003D000000}" uniqueName="61" name="35/-1" queryTableFieldId="61" dataDxfId="134"/>
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0000-00003E000000}" uniqueName="62" name="35/1" queryTableFieldId="62" dataDxfId="133"/>
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0000-00003F000000}" uniqueName="63" name="35/2" queryTableFieldId="63" dataDxfId="132"/>
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0000-000040000000}" uniqueName="64" name="35/4" queryTableFieldId="64" dataDxfId="131"/>
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0000-000041000000}" uniqueName="65" name="35/7" queryTableFieldId="65" dataDxfId="130"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="psych_RFT_COTE_sub_02PC3" displayName="psych_RFT_COTE_sub_02PC3" ref="A1:BM12" tableType="queryTable" totalsRowCount="1">
-  <autoFilter ref="A1:BM11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="psych_RFT_COTE_sub_02PC3" displayName="psych_RFT_COTE_sub_02PC3" ref="A1:BM12" tableType="queryTable" totalsRowCount="1">
+  <autoFilter ref="A1:BM11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="65">
-    <tableColumn id="1" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="129" totalsRowDxfId="128"/>
-    <tableColumn id="2" uniqueName="2" name="-35/-7" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="127" totalsRowDxfId="126">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" uniqueName="1" name="Essai" queryTableFieldId="1" dataDxfId="129" totalsRowDxfId="128"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" uniqueName="2" name="-35/-7" totalsRowFunction="custom" queryTableFieldId="2" dataDxfId="127" totalsRowDxfId="126">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="3" uniqueName="3" name="-35/-4" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="125" totalsRowDxfId="124">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" uniqueName="3" name="-35/-4" totalsRowFunction="custom" queryTableFieldId="3" dataDxfId="125" totalsRowDxfId="124">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" uniqueName="4" name="-35/-2" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="123" totalsRowDxfId="122">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" uniqueName="4" name="-35/-2" totalsRowFunction="custom" queryTableFieldId="4" dataDxfId="123" totalsRowDxfId="122">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="5" uniqueName="5" name="-35/-1" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="121" totalsRowDxfId="120">
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" uniqueName="5" name="-35/-1" totalsRowFunction="custom" queryTableFieldId="5" dataDxfId="121" totalsRowDxfId="120">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="6" uniqueName="6" name="-35/1" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="119" totalsRowDxfId="118">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" uniqueName="6" name="-35/1" totalsRowFunction="custom" queryTableFieldId="6" dataDxfId="119" totalsRowDxfId="118">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="7" uniqueName="7" name="-35/2" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="117" totalsRowDxfId="116">
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" uniqueName="7" name="-35/2" totalsRowFunction="custom" queryTableFieldId="7" dataDxfId="117" totalsRowDxfId="116">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" uniqueName="8" name="-35/4" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="115" totalsRowDxfId="114">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" uniqueName="8" name="-35/4" totalsRowFunction="custom" queryTableFieldId="8" dataDxfId="115" totalsRowDxfId="114">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" uniqueName="9" name="-35/7" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="113" totalsRowDxfId="112">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" uniqueName="9" name="-35/7" totalsRowFunction="custom" queryTableFieldId="9" dataDxfId="113" totalsRowDxfId="112">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-35/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" uniqueName="10" name="-25/-7" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="111" totalsRowDxfId="110">
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" uniqueName="10" name="-25/-7" totalsRowFunction="custom" queryTableFieldId="10" dataDxfId="111" totalsRowDxfId="110">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" uniqueName="11" name="-25/-4" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="109" totalsRowDxfId="108">
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" uniqueName="11" name="-25/-4" totalsRowFunction="custom" queryTableFieldId="11" dataDxfId="109" totalsRowDxfId="108">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="12" uniqueName="12" name="-25/-2" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="107" totalsRowDxfId="106">
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0100-00000C000000}" uniqueName="12" name="-25/-2" totalsRowFunction="custom" queryTableFieldId="12" dataDxfId="107" totalsRowDxfId="106">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" uniqueName="13" name="-25/-1" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="105" totalsRowDxfId="104">
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0100-00000D000000}" uniqueName="13" name="-25/-1" totalsRowFunction="custom" queryTableFieldId="13" dataDxfId="105" totalsRowDxfId="104">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" uniqueName="14" name="-25/1" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="103" totalsRowDxfId="102">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0100-00000E000000}" uniqueName="14" name="-25/1" totalsRowFunction="custom" queryTableFieldId="14" dataDxfId="103" totalsRowDxfId="102">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="15" uniqueName="15" name="-25/2" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="101" totalsRowDxfId="100">
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0100-00000F000000}" uniqueName="15" name="-25/2" totalsRowFunction="custom" queryTableFieldId="15" dataDxfId="101" totalsRowDxfId="100">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" uniqueName="16" name="-25/4" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="99" totalsRowDxfId="98">
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0100-000010000000}" uniqueName="16" name="-25/4" totalsRowFunction="custom" queryTableFieldId="16" dataDxfId="99" totalsRowDxfId="98">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="17" uniqueName="17" name="-25/7" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="97" totalsRowDxfId="96">
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0100-000011000000}" uniqueName="17" name="-25/7" totalsRowFunction="custom" queryTableFieldId="17" dataDxfId="97" totalsRowDxfId="96">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-25/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="18" uniqueName="18" name="-15/-7" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="95" totalsRowDxfId="94">
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0100-000012000000}" uniqueName="18" name="-15/-7" totalsRowFunction="custom" queryTableFieldId="18" dataDxfId="95" totalsRowDxfId="94">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="19" uniqueName="19" name="-15/-4" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="93" totalsRowDxfId="92">
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0100-000013000000}" uniqueName="19" name="-15/-4" totalsRowFunction="custom" queryTableFieldId="19" dataDxfId="93" totalsRowDxfId="92">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="20" uniqueName="20" name="-15/-2" totalsRowFunction="custom" queryTableFieldId="20" dataDxfId="91" totalsRowDxfId="90">
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" uniqueName="20" name="-15/-2" totalsRowFunction="custom" queryTableFieldId="20" dataDxfId="91" totalsRowDxfId="90">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="21" uniqueName="21" name="-15/-1" totalsRowFunction="custom" queryTableFieldId="21" dataDxfId="89" totalsRowDxfId="88">
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" uniqueName="21" name="-15/-1" totalsRowFunction="custom" queryTableFieldId="21" dataDxfId="89" totalsRowDxfId="88">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="22" uniqueName="22" name="-15/1" totalsRowFunction="custom" queryTableFieldId="22" dataDxfId="87" totalsRowDxfId="86">
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" uniqueName="22" name="-15/1" totalsRowFunction="custom" queryTableFieldId="22" dataDxfId="87" totalsRowDxfId="86">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="23" uniqueName="23" name="-15/2" totalsRowFunction="custom" queryTableFieldId="23" dataDxfId="85" totalsRowDxfId="84">
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0100-000017000000}" uniqueName="23" name="-15/2" totalsRowFunction="custom" queryTableFieldId="23" dataDxfId="85" totalsRowDxfId="84">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="24" uniqueName="24" name="-15/4" totalsRowFunction="custom" queryTableFieldId="24" dataDxfId="83" totalsRowDxfId="82">
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0100-000018000000}" uniqueName="24" name="-15/4" totalsRowFunction="custom" queryTableFieldId="24" dataDxfId="83" totalsRowDxfId="82">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="25" uniqueName="25" name="-15/7" totalsRowFunction="custom" queryTableFieldId="25" dataDxfId="81" totalsRowDxfId="80">
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0100-000019000000}" uniqueName="25" name="-15/7" totalsRowFunction="custom" queryTableFieldId="25" dataDxfId="81" totalsRowDxfId="80">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-15/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="26" uniqueName="26" name="-5/-7" totalsRowFunction="custom" queryTableFieldId="26" dataDxfId="79" totalsRowDxfId="78">
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0100-00001A000000}" uniqueName="26" name="-5/-7" totalsRowFunction="custom" queryTableFieldId="26" dataDxfId="79" totalsRowDxfId="78">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="27" uniqueName="27" name="-5/-4" totalsRowFunction="custom" queryTableFieldId="27" dataDxfId="77" totalsRowDxfId="76">
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0100-00001B000000}" uniqueName="27" name="-5/-4" totalsRowFunction="custom" queryTableFieldId="27" dataDxfId="77" totalsRowDxfId="76">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="28" uniqueName="28" name="-5/-2" totalsRowFunction="custom" queryTableFieldId="28" dataDxfId="75" totalsRowDxfId="74">
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0100-00001C000000}" uniqueName="28" name="-5/-2" totalsRowFunction="custom" queryTableFieldId="28" dataDxfId="75" totalsRowDxfId="74">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="29" uniqueName="29" name="-5/-1" totalsRowFunction="custom" queryTableFieldId="29" dataDxfId="73" totalsRowDxfId="72">
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0100-00001D000000}" uniqueName="29" name="-5/-1" totalsRowFunction="custom" queryTableFieldId="29" dataDxfId="73" totalsRowDxfId="72">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="30" uniqueName="30" name="-5/1" totalsRowFunction="custom" queryTableFieldId="30" dataDxfId="71" totalsRowDxfId="70">
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0100-00001E000000}" uniqueName="30" name="-5/1" totalsRowFunction="custom" queryTableFieldId="30" dataDxfId="71" totalsRowDxfId="70">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="31" uniqueName="31" name="-5/2" totalsRowFunction="custom" queryTableFieldId="31" dataDxfId="69" totalsRowDxfId="68">
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0100-00001F000000}" uniqueName="31" name="-5/2" totalsRowFunction="custom" queryTableFieldId="31" dataDxfId="69" totalsRowDxfId="68">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="32" uniqueName="32" name="-5/4" totalsRowFunction="custom" queryTableFieldId="32" dataDxfId="67" totalsRowDxfId="66">
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0100-000020000000}" uniqueName="32" name="-5/4" totalsRowFunction="custom" queryTableFieldId="32" dataDxfId="67" totalsRowDxfId="66">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="33" uniqueName="33" name="-5/7" totalsRowFunction="custom" queryTableFieldId="33" dataDxfId="65" totalsRowDxfId="64">
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0100-000021000000}" uniqueName="33" name="-5/7" totalsRowFunction="custom" queryTableFieldId="33" dataDxfId="65" totalsRowDxfId="64">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[-5/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="34" uniqueName="34" name="5/-7" totalsRowFunction="custom" queryTableFieldId="34" dataDxfId="63" totalsRowDxfId="62">
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0100-000022000000}" uniqueName="34" name="5/-7" totalsRowFunction="custom" queryTableFieldId="34" dataDxfId="63" totalsRowDxfId="62">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="35" uniqueName="35" name="5/-4" totalsRowFunction="custom" queryTableFieldId="35" dataDxfId="61" totalsRowDxfId="60">
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0100-000023000000}" uniqueName="35" name="5/-4" totalsRowFunction="custom" queryTableFieldId="35" dataDxfId="61" totalsRowDxfId="60">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="36" uniqueName="36" name="5/-2" totalsRowFunction="custom" queryTableFieldId="36" dataDxfId="59" totalsRowDxfId="58">
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0100-000024000000}" uniqueName="36" name="5/-2" totalsRowFunction="custom" queryTableFieldId="36" dataDxfId="59" totalsRowDxfId="58">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="37" uniqueName="37" name="5/-1" totalsRowFunction="custom" queryTableFieldId="37" dataDxfId="57" totalsRowDxfId="56">
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0100-000025000000}" uniqueName="37" name="5/-1" totalsRowFunction="custom" queryTableFieldId="37" dataDxfId="57" totalsRowDxfId="56">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="38" uniqueName="38" name="5/1" totalsRowFunction="custom" queryTableFieldId="38" dataDxfId="55" totalsRowDxfId="54">
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0100-000026000000}" uniqueName="38" name="5/1" totalsRowFunction="custom" queryTableFieldId="38" dataDxfId="55" totalsRowDxfId="54">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="39" uniqueName="39" name="5/2" totalsRowFunction="custom" queryTableFieldId="39" dataDxfId="53" totalsRowDxfId="52">
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0100-000027000000}" uniqueName="39" name="5/2" totalsRowFunction="custom" queryTableFieldId="39" dataDxfId="53" totalsRowDxfId="52">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="40" uniqueName="40" name="5/4" totalsRowFunction="custom" queryTableFieldId="40" dataDxfId="51" totalsRowDxfId="50">
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0100-000028000000}" uniqueName="40" name="5/4" totalsRowFunction="custom" queryTableFieldId="40" dataDxfId="51" totalsRowDxfId="50">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="41" uniqueName="41" name="5/7" totalsRowFunction="custom" queryTableFieldId="41" dataDxfId="49" totalsRowDxfId="48">
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0100-000029000000}" uniqueName="41" name="5/7" totalsRowFunction="custom" queryTableFieldId="41" dataDxfId="49" totalsRowDxfId="48">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[5/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="42" uniqueName="42" name="15/-7" totalsRowFunction="custom" queryTableFieldId="42" dataDxfId="47" totalsRowDxfId="46">
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0100-00002A000000}" uniqueName="42" name="15/-7" totalsRowFunction="custom" queryTableFieldId="42" dataDxfId="47" totalsRowDxfId="46">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="43" uniqueName="43" name="15/-4" totalsRowFunction="custom" queryTableFieldId="43" dataDxfId="45" totalsRowDxfId="44">
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0100-00002B000000}" uniqueName="43" name="15/-4" totalsRowFunction="custom" queryTableFieldId="43" dataDxfId="45" totalsRowDxfId="44">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="44" uniqueName="44" name="15/-2" totalsRowFunction="custom" queryTableFieldId="44" dataDxfId="43" totalsRowDxfId="42">
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0100-00002C000000}" uniqueName="44" name="15/-2" totalsRowFunction="custom" queryTableFieldId="44" dataDxfId="43" totalsRowDxfId="42">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="45" uniqueName="45" name="15/-1" totalsRowFunction="custom" queryTableFieldId="45" dataDxfId="41" totalsRowDxfId="40">
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0100-00002D000000}" uniqueName="45" name="15/-1" totalsRowFunction="custom" queryTableFieldId="45" dataDxfId="41" totalsRowDxfId="40">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="46" uniqueName="46" name="15/1" totalsRowFunction="custom" queryTableFieldId="46" dataDxfId="39" totalsRowDxfId="38">
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0100-00002E000000}" uniqueName="46" name="15/1" totalsRowFunction="custom" queryTableFieldId="46" dataDxfId="39" totalsRowDxfId="38">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="47" uniqueName="47" name="15/2" totalsRowFunction="custom" queryTableFieldId="47" dataDxfId="37" totalsRowDxfId="36">
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0100-00002F000000}" uniqueName="47" name="15/2" totalsRowFunction="custom" queryTableFieldId="47" dataDxfId="37" totalsRowDxfId="36">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="48" uniqueName="48" name="15/4" totalsRowFunction="custom" queryTableFieldId="48" dataDxfId="35" totalsRowDxfId="34">
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0100-000030000000}" uniqueName="48" name="15/4" totalsRowFunction="custom" queryTableFieldId="48" dataDxfId="35" totalsRowDxfId="34">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="49" uniqueName="49" name="15/7" totalsRowFunction="custom" queryTableFieldId="49" dataDxfId="33" totalsRowDxfId="32">
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0100-000031000000}" uniqueName="49" name="15/7" totalsRowFunction="custom" queryTableFieldId="49" dataDxfId="33" totalsRowDxfId="32">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[15/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="50" uniqueName="50" name="25/-7" totalsRowFunction="custom" queryTableFieldId="50" dataDxfId="31" totalsRowDxfId="30">
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0100-000032000000}" uniqueName="50" name="25/-7" totalsRowFunction="custom" queryTableFieldId="50" dataDxfId="31" totalsRowDxfId="30">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="51" uniqueName="51" name="25/-4" totalsRowFunction="custom" queryTableFieldId="51" dataDxfId="29" totalsRowDxfId="28">
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0100-000033000000}" uniqueName="51" name="25/-4" totalsRowFunction="custom" queryTableFieldId="51" dataDxfId="29" totalsRowDxfId="28">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="52" uniqueName="52" name="25/-2" totalsRowFunction="custom" queryTableFieldId="52" dataDxfId="27" totalsRowDxfId="26">
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0100-000034000000}" uniqueName="52" name="25/-2" totalsRowFunction="custom" queryTableFieldId="52" dataDxfId="27" totalsRowDxfId="26">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="53" uniqueName="53" name="25/-1" totalsRowFunction="custom" queryTableFieldId="53" dataDxfId="25" totalsRowDxfId="24">
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0100-000035000000}" uniqueName="53" name="25/-1" totalsRowFunction="custom" queryTableFieldId="53" dataDxfId="25" totalsRowDxfId="24">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="54" uniqueName="54" name="25/1" totalsRowFunction="custom" queryTableFieldId="54" dataDxfId="23" totalsRowDxfId="22">
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0100-000036000000}" uniqueName="54" name="25/1" totalsRowFunction="custom" queryTableFieldId="54" dataDxfId="23" totalsRowDxfId="22">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="55" uniqueName="55" name="25/2" totalsRowFunction="custom" queryTableFieldId="55" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0100-000037000000}" uniqueName="55" name="25/2" totalsRowFunction="custom" queryTableFieldId="55" dataDxfId="21" totalsRowDxfId="20">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="56" uniqueName="56" name="25/4" totalsRowFunction="custom" queryTableFieldId="56" dataDxfId="19" totalsRowDxfId="18">
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0100-000038000000}" uniqueName="56" name="25/4" totalsRowFunction="custom" queryTableFieldId="56" dataDxfId="19" totalsRowDxfId="18">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="57" uniqueName="57" name="25/7" totalsRowFunction="custom" queryTableFieldId="57" dataDxfId="17" totalsRowDxfId="16">
+    <tableColumn id="57" xr3:uid="{00000000-0010-0000-0100-000039000000}" uniqueName="57" name="25/7" totalsRowFunction="custom" queryTableFieldId="57" dataDxfId="17" totalsRowDxfId="16">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[25/7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="58" uniqueName="58" name="35/-7" totalsRowFunction="custom" queryTableFieldId="58" dataDxfId="15" totalsRowDxfId="14">
+    <tableColumn id="58" xr3:uid="{00000000-0010-0000-0100-00003A000000}" uniqueName="58" name="35/-7" totalsRowFunction="custom" queryTableFieldId="58" dataDxfId="15" totalsRowDxfId="14">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/-7])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="59" uniqueName="59" name="35/-4" totalsRowFunction="custom" queryTableFieldId="59" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="59" xr3:uid="{00000000-0010-0000-0100-00003B000000}" uniqueName="59" name="35/-4" totalsRowFunction="custom" queryTableFieldId="59" dataDxfId="13" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/-4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="60" uniqueName="60" name="35/-2" totalsRowFunction="custom" queryTableFieldId="60" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="60" xr3:uid="{00000000-0010-0000-0100-00003C000000}" uniqueName="60" name="35/-2" totalsRowFunction="custom" queryTableFieldId="60" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/-2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="61" uniqueName="61" name="35/-1" totalsRowFunction="custom" queryTableFieldId="61" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="61" xr3:uid="{00000000-0010-0000-0100-00003D000000}" uniqueName="61" name="35/-1" totalsRowFunction="custom" queryTableFieldId="61" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/-1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="62" uniqueName="62" name="35/1" totalsRowFunction="custom" queryTableFieldId="62" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="62" xr3:uid="{00000000-0010-0000-0100-00003E000000}" uniqueName="62" name="35/1" totalsRowFunction="custom" queryTableFieldId="62" dataDxfId="7" totalsRowDxfId="6">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/1])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="63" uniqueName="63" name="35/2" totalsRowFunction="custom" queryTableFieldId="63" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="63" xr3:uid="{00000000-0010-0000-0100-00003F000000}" uniqueName="63" name="35/2" totalsRowFunction="custom" queryTableFieldId="63" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/2])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="64" uniqueName="64" name="35/4" totalsRowFunction="custom" queryTableFieldId="64" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="64" xr3:uid="{00000000-0010-0000-0100-000040000000}" uniqueName="64" name="35/4" totalsRowFunction="custom" queryTableFieldId="64" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/4])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="65" uniqueName="65" name="35/7" totalsRowFunction="custom" queryTableFieldId="65" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="65" xr3:uid="{00000000-0010-0000-0100-000041000000}" uniqueName="65" name="35/7" totalsRowFunction="custom" queryTableFieldId="65" dataDxfId="1" totalsRowDxfId="0">
       <totalsRowFormula>AVERAGE(psych_RFT_COTE_sub_02PC3[35/7])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
@@ -3832,7 +3844,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BM11"/>
   <sheetViews>
     <sheetView topLeftCell="DN1" workbookViewId="0">
@@ -6035,11 +6047,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8984,7 +8996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/sub-02PC/psych_RFT_COTE_sub-02PC.xlsx
+++ b/sub-02PC/psych_RFT_COTE_sub-02PC.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c2ba5e4d6c31477a/Documents/GitHub/psych/sub-02PC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Manip\Psych\psych\sub-02PC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{70F66B42-6460-4BDF-BE26-3BFC3707F02D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{21951E85-00D0-470A-958A-3CC926C53DBC}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4202B7A0-423B-4FA8-A0DA-AF70129B8516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="490" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="psych_RFT_COTE_sub-02PC (2)" sheetId="2" r:id="rId1"/>
@@ -1644,7 +1644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="fr-FR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2422,7 +2422,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1189462512"/>
@@ -2481,7 +2481,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="fr-FR"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1189468336"/>
@@ -2529,7 +2529,342 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="fr-FR"/>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Feuil1!$BF$15:$BM$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Feuil1!$BF$16:$BM$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D1BD-4694-8DD5-C5DD31600951}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="656750504"/>
+        <c:axId val="656754112"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="656750504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656754112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="656754112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="656750504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2541,6 +2876,46 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3083,6 +3458,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3116,6 +4007,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>325438</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Graphique 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F017318-3787-4565-B78A-7E3C182E4B0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -6050,8 +6977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:BM21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE1" sqref="AE1:AE1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
